--- a/biology/Botanique/Glochidion/Glochidion.xlsx
+++ b/biology/Botanique/Glochidion/Glochidion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Glochidion est un genre de plantes à fleurs de la famille des Phyllanthaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Descrpiption</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de Glochidion sont des arbustes ou des arbres, monoïques avec des rameaux plagiotropes. Les feuilles sont entières, alternes à disposition distique[1].
-Les fleurs sont unisexuées sur des inflorescences axillaires, avec un calice formé de 5 ou 6 lobes imbriqués, dépourvues de pétales. Les mâles ont 3 à 8 étamines, les femelles ont un ovaire de 3 à 15 loges et des styles persistants rapprochés en colonne[1].
-Les fruits sont en forme de capsules globuleuses et aplaties, s'ouvrant en autant de loges avec deux graines par loge[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de Glochidion sont des arbustes ou des arbres, monoïques avec des rameaux plagiotropes. Les feuilles sont entières, alternes à disposition distique.
+Les fleurs sont unisexuées sur des inflorescences axillaires, avec un calice formé de 5 ou 6 lobes imbriqués, dépourvues de pétales. Les mâles ont 3 à 8 étamines, les femelles ont un ovaire de 3 à 15 loges et des styles persistants rapprochés en colonne.
+Les fruits sont en forme de capsules globuleuses et aplaties, s'ouvrant en autant de loges avec deux graines par loge.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a plus de 300 espèces réparties en Asie tropicale, en Malaisie, dans le Pacifique Est et en Amérique tropicale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a plus de 300 espèces réparties en Asie tropicale, en Malaisie, dans le Pacifique Est et en Amérique tropicale.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Espèces principales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Glochidion apodogynum
@@ -658,11 +676,13 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de Glochidion sont des plantes alimentaires pour les larves de certaines espèces de lépidoptères, notamment Aenetus eximia (en) et Endoclita damor (en).
-Les Glochidion sont remarquables dans les domaines de la biologie de la pollinisation et de la coévolution, car elles ont un mutualisme spécialisé avec les papillons de nuit du genre Epicephala : les papillons pollinisent activement les fleurs, garantissant ainsi que l'arbre puisse produire des graines viables, mais ils pondent également dans les ovaires des fleurs, où leurs larves consomment un sous-ensemble des graines en développement pour se nourrir[2]. D'autres espèces d’Epicephala sont des pollinisateurs et, dans certains cas, des prédateurs non pollinisateurs de graines de certaines espèces de plantes des genres Phyllanthus et Breynia, toutes deux étroitement apparentées à Glochidion.
-L'espèce est-asiatique Glochidion puberum a été naturalisée à plusieurs endroits dans l’État américain de l'Alabama[3].
+Les Glochidion sont remarquables dans les domaines de la biologie de la pollinisation et de la coévolution, car elles ont un mutualisme spécialisé avec les papillons de nuit du genre Epicephala : les papillons pollinisent activement les fleurs, garantissant ainsi que l'arbre puisse produire des graines viables, mais ils pondent également dans les ovaires des fleurs, où leurs larves consomment un sous-ensemble des graines en développement pour se nourrir. D'autres espèces d’Epicephala sont des pollinisateurs et, dans certains cas, des prédateurs non pollinisateurs de graines de certaines espèces de plantes des genres Phyllanthus et Breynia, toutes deux étroitement apparentées à Glochidion.
+L'espèce est-asiatique Glochidion puberum a été naturalisée à plusieurs endroits dans l’État américain de l'Alabama.
 </t>
         </is>
       </c>
@@ -691,7 +711,9 @@
           <t>Médecine</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Nicobariens ont attesté les propriétés médicinales de G. calocarpum, affirmant que son écorce et ses graines sont les plus efficaces pour soigner les troubles abdominaux associés à l'amibiase.
 </t>
